--- a/Plan_projektu.xlsx
+++ b/Plan_projektu.xlsx
@@ -1379,7 +1379,7 @@
   <dimension ref="B2:CW34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1820,7 +1820,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:101" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1834,13 +1834,13 @@
         <v>7</v>
       </c>
       <c r="E10" s="15">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10" s="15">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G10" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:101" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1854,13 +1854,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="15">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F11" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:101" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1874,13 +1874,13 @@
         <v>7</v>
       </c>
       <c r="E12" s="15">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F12" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:101" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
